--- a/RUDN/Importance/Varible_in_Australia and New Zealand.xlsx
+++ b/RUDN/Importance/Varible_in_Australia and New Zealand.xlsx
@@ -14,177 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
   </si>
 </sst>
 </file>
@@ -542,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1543209850788116</v>
+        <v>0.1764705926179886</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -566,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09876543283462524</v>
+        <v>0.1568627506494522</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -574,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08641975373029709</v>
+        <v>0.1176470592617989</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -582,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08641975373029709</v>
+        <v>0.0784313753247261</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -590,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407462596893</v>
+        <v>0.05882352963089943</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -598,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04320987686514854</v>
+        <v>0.03921568766236305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -606,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04320987686514854</v>
+        <v>0.03921568766236305</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -614,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02469135820865631</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -622,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01851851865649223</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -630,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01851851865649223</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -638,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01851851865649223</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -646,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01851851865649223</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -654,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -662,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -670,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -678,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -686,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -694,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01234567910432816</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -702,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -710,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -718,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -726,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -734,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -742,271 +643,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>0.006172839552164078</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>0.006172839552164078</v>
+        <v>0.01960784383118153</v>
       </c>
     </row>
   </sheetData>
